--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/20/seed5/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.285799999999998</v>
+        <v>-7.241999999999998</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -485,10 +485,10 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.32269999999999</v>
+        <v>-10.30289999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.741499999999991</v>
+        <v>-6.774199999999991</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.4758</v>
+        <v>-12.409</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.049</v>
+        <v>16.0583</v>
       </c>
     </row>
     <row r="9">
@@ -590,7 +590,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.045299999999997</v>
+        <v>-7.208799999999997</v>
       </c>
       <c r="E9" t="n">
         <v>17.64</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.7668</v>
+        <v>-21.64249999999999</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -627,12 +627,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.49289999999999</v>
+        <v>16.5879</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.488</v>
+        <v>-21.56519999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -672,18 +672,18 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.8143</v>
+        <v>-13.389</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.85590000000001</v>
+        <v>16.75730000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.8525</v>
+        <v>-21.54189999999999</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -692,10 +692,10 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.348200000000002</v>
+        <v>-8.072999999999997</v>
       </c>
       <c r="E15" t="n">
-        <v>16.51059999999999</v>
+        <v>16.0691</v>
       </c>
     </row>
     <row r="16">
@@ -729,7 +729,7 @@
         <v>-7.82</v>
       </c>
       <c r="E17" t="n">
-        <v>16.87730000000001</v>
+        <v>16.88630000000001</v>
       </c>
     </row>
     <row r="18">
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.394999999999998</v>
+        <v>-7.314199999999997</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.377699999999999</v>
+        <v>-7.440100000000001</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.577900000000001</v>
+        <v>-7.540100000000002</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -876,18 +876,18 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-13.16490000000001</v>
+        <v>-12.97660000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>15.5618</v>
+        <v>15.70029999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.7559</v>
+        <v>-21.8837</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.745200000000001</v>
+        <v>-8.692299999999998</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.8583</v>
+        <v>-21.70759999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.0007</v>
+        <v>-7.839900000000003</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.122300000000005</v>
+        <v>-7.116900000000005</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.48090000000001</v>
+        <v>-21.43780000000001</v>
       </c>
       <c r="B31" t="n">
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.0088</v>
+        <v>-13.0004</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.57619999999999</v>
+        <v>-21.6377</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.374000000000001</v>
+        <v>-8.333000000000006</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.6528</v>
+        <v>-12.4953</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.83130000000001</v>
+        <v>-20.826</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>15.7292</v>
+        <v>15.8336</v>
       </c>
     </row>
     <row r="37">
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.64419999999999</v>
+        <v>-14.09209999999999</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.72789999999999</v>
+        <v>-19.4982</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-13.00360000000001</v>
+        <v>-12.88810000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.9822</v>
+        <v>-13.99970000000001</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.48539999999999</v>
+        <v>16.64979999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.199300000000001</v>
+        <v>-7.217300000000002</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-14.21019999999999</v>
+        <v>-13.98329999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.5597</v>
+        <v>-21.4558</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.3826</v>
+        <v>-7.577200000000001</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.9799</v>
+        <v>-10.9131</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.52539999999999</v>
+        <v>-21.4922</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.46000000000001</v>
+        <v>-22.4062</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.16730000000002</v>
+        <v>-22.21490000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.51919999999999</v>
+        <v>-14.91969999999998</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.151499999999999</v>
+        <v>-8.020500000000004</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.385599999999993</v>
+        <v>-8.296099999999999</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.47120000000001</v>
+        <v>17.4993</v>
       </c>
     </row>
     <row r="65">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.54859999999997</v>
+        <v>-21.56349999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1596,12 +1596,12 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>16.9265</v>
+        <v>16.84940000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.71039999999997</v>
+        <v>-21.71969999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.44499999999999</v>
+        <v>-21.50189999999998</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.79920000000001</v>
+        <v>-19.97290000000001</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1746,7 +1746,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-5.630199999999999</v>
+        <v>-5.5103</v>
       </c>
       <c r="E77" t="n">
         <v>17.96</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.420400000000003</v>
+        <v>-7.506500000000002</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.18600000000002</v>
+        <v>18.19090000000002</v>
       </c>
     </row>
     <row r="80">
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.93639999999999</v>
+        <v>-13.05599999999999</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.64719999999999</v>
+        <v>-21.60769999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.35319999999999</v>
+        <v>-12.2716</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.503800000000005</v>
+        <v>-8.673199999999996</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.34730000000002</v>
+        <v>-22.27650000000002</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1950,10 +1950,10 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.098499999999998</v>
+        <v>-6.000199999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>19.09730000000003</v>
+        <v>18.82190000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.4269</v>
+        <v>-21.47500000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.105299999999997</v>
+        <v>-5.984799999999999</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.058699999999999</v>
+        <v>-5.947299999999997</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.319</v>
+        <v>-21.24329999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.357100000000006</v>
+        <v>-7.276900000000005</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.4496</v>
+        <v>-20.55919999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.3736</v>
+        <v>-12.95159999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,10 +2168,10 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.58349999999999</v>
+        <v>-14.54239999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.006199999999996</v>
+        <v>-7.8569</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
